--- a/INFORMATIVO 18° GRE.xlsx
+++ b/INFORMATIVO 18° GRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 14, 16, 17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 14, 16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 16, 17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 14, 15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 14, 15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 14, 16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 15, 16, 17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 14, 17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 14, 15, 16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 13, 14, 15, 17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 13, 14, 15, 16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 13, 14, 16, 17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 16</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 13, 14, 15, 17</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 13, 15, 16</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 15, 16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>ROTA NÃO CONDIZ</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>ROTA NÃO CONDIZ</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2580,7 +2580,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>KJK-9345</t>
+          <t>NQR-5926</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>KJK-9345</t>
+          <t>NQR-5926</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>KXR-5549</t>
+          <t>KJK-9345</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 13</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2669,19 +2669,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>PALMERAIS</t>
+          <t>UNIÃO</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>KXR-5549</t>
+          <t>KJK-9345</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2701,19 +2701,19 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PALMERAIS</t>
+          <t>UNIÃO</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NGJ-0903</t>
+          <t>KXR-5549</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NGJ-0903</t>
+          <t>KXR-5549</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2772,12 +2772,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NGC-8853</t>
+          <t>NGJ-0903</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2804,30 +2804,126 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>NGJ-0903</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>~, 16</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NÃO APRESENTA ROTA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NGJ-0903</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>~, 13, 14</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ROTA NÃO CONDIZ</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>NGC-8853</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>JUNHO</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>TARDE</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>NÃO APRESENTA ROTA</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NÃO FEZ A ROTA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NGC-8853</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>~, 12, 13, 14</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NÃO APRESENTA ROTA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>PALMERAIS</t>
         </is>

--- a/INFORMATIVO 18° GRE.xlsx
+++ b/INFORMATIVO 18° GRE.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 16</t>
+          <t>~, 12, 13, 14, 16, 17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~, 16</t>
+          <t>~, 16, 17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 14, 16</t>
+          <t>~, 14, 16, 17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~, 15</t>
+          <t>~, 15, 17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 14</t>
+          <t>~, 14, 17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 13, 14, 15, 16</t>
+          <t>~, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14</t>
+          <t>~, 12, 13, 14, 17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14</t>
+          <t>~, 12, 13, 14, 17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14</t>
+          <t>~, 12, 13, 14, 17</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~, 12, 13, 16</t>
+          <t>~, 12, 13, 16, 17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15</t>
+          <t>~, 12, 13, 14, 15, 17</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~, 13, 15, 16</t>
+          <t>~, 13, 15, 16, 17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 12, 15, 16</t>
+          <t>~, 12, 15, 16, 17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 17</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>~, 16</t>
+          <t>~, 16, 17</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14</t>
+          <t>~, 12, 13, 14, 17</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">

--- a/INFORMATIVO 18° GRE.xlsx
+++ b/INFORMATIVO 18° GRE.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 16, 17</t>
+          <t>~, 12, 13, 14, 16, 17, 17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/INFORMATIVO 18° GRE.xlsx
+++ b/INFORMATIVO 18° GRE.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 16, 17</t>
+          <t>~, 12, 13, 14, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 16, 17, 17</t>
+          <t>~, 12, 13, 14, 16, 17, 17, 19, 20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~, 16, 17</t>
+          <t>~, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~, 16, 17</t>
+          <t>~, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~, 17, 19, 20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~, 17, 19, 20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 14, 16, 17</t>
+          <t>~, 14, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~, 12, 13, 15</t>
+          <t>~, 12, 13, 15, 19, 20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~, 12, 13, 16</t>
+          <t>~, 12, 13, 16, 19, 20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 13, 14, 15, 16, 17</t>
+          <t>~, 13, 14, 15, 16, 17, 19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 17</t>
+          <t>~, 12, 13, 14, 17, 19, 20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~, 14</t>
+          <t>~, 14, 20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~, 13, 14, 16, 17</t>
+          <t>~, 13, 14, 16, 17, 20</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 17</t>
+          <t>~, 12, 13, 14, 15, 17, 19, 20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 17</t>
+          <t>~, 12, 13, 14, 15, 17, 19, 20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~, 12, 14</t>
+          <t>~, 12, 14, 19, 20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16</t>
+          <t>~, 12, 13, 14, 15, 16, 19, 20</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16</t>
+          <t>~, 12, 13, 14, 15, 16, 19, 20</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~, 12, 19</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>~, 16, 17</t>
+          <t>~, 16, 17, 20</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">

--- a/INFORMATIVO 18° GRE.xlsx
+++ b/INFORMATIVO 18° GRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 16, 17, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LWJ-4504</t>
+          <t>NMR-8H77</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~, 16, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,12 +628,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LWJ-4504</t>
+          <t>NMR-8H77</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,12 +660,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LWJ-4504</t>
+          <t>NMR-8H77</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~, 16, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -692,12 +692,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LWJ-4504</t>
+          <t>NMR-8H77</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,12 +724,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NXI-5251</t>
+          <t>LWJ-4504</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -756,12 +756,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NXI-5251</t>
+          <t>LWJ-4504</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -788,12 +788,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NXI-5251</t>
+          <t>LWJ-4504</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NXI-5251</t>
+          <t>LWJ-4504</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 14, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -916,12 +916,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NGJ-0863</t>
+          <t>NXI-5251</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~, 15, 16, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,29 +931,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JOSÉ DE FREITAS</t>
+          <t>ALTOS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NGJ-0863</t>
+          <t>NXI-5251</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -963,29 +963,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>JOSÉ DE FREITAS</t>
+          <t>ALTOS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NGJ-0863</t>
+          <t>NXI-5251</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~, 15, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,29 +995,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>JOSÉ DE FREITAS</t>
+          <t>ALTOS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NGJ-0863</t>
+          <t>NXI-5251</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,24 +1027,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>JOSÉ DE FREITAS</t>
+          <t>ALTOS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HZA-7102</t>
+          <t>NGJ-0863</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1076,12 +1076,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HZA-7102</t>
+          <t>NGJ-0863</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1108,12 +1108,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HYU-4278</t>
+          <t>NGJ-0863</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~, 14, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1123,24 +1123,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LAGOA ALEGRE</t>
+          <t>JOSÉ DE FREITAS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HYU-4278</t>
+          <t>NGJ-0863</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1155,29 +1155,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>LAGOA ALEGRE</t>
+          <t>JOSÉ DE FREITAS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HYU-4278</t>
+          <t>HZA-7102</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~, 12, 13, 15, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,29 +1187,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ROTA NÃO CONDIZ</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LAGOA ALEGRE</t>
+          <t>JOSÉ DE FREITAS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HYU-4278</t>
+          <t>HZA-7102</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~, 12, 13, 16, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1224,24 +1224,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ROTA NÃO CONDIZ</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LAGOA ALEGRE</t>
+          <t>JOSÉ DE FREITAS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HYU-4278</t>
+          <t>NMR-9010</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 14, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1251,24 +1251,24 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>LAGOA ALEGRE</t>
+          <t>JOSÉ DE FREITAS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HYU-4278</t>
+          <t>NMR-9010</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1283,24 +1283,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>LAGOA ALEGRE</t>
+          <t>JOSÉ DE FREITAS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NGC-9023</t>
+          <t>NMR-9010</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1315,29 +1315,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>LAGOA ALEGRE</t>
+          <t>JOSÉ DE FREITAS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NGC-9023</t>
+          <t>NMR-9010</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1347,29 +1347,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>LAGOA ALEGRE</t>
+          <t>JOSÉ DE FREITAS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NGC-9023</t>
+          <t>HYU-4278</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1396,12 +1396,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NGC-9023</t>
+          <t>HYU-4278</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HZA-7072</t>
+          <t>HYU-4278</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~, 16</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1443,29 +1443,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIGUEL ALVES</t>
+          <t>LAGOA ALEGRE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HZA-7072</t>
+          <t>HYU-4278</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 13, 14, 15, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1475,29 +1475,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MIGUEL ALVES</t>
+          <t>LAGOA ALEGRE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HZA-7072</t>
+          <t>NGC-9023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,29 +1507,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MIGUEL ALVES</t>
+          <t>LAGOA ALEGRE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HZA-7072</t>
+          <t>NGC-9023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 13, 14, 15, 16, 17, 19</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1539,29 +1539,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MIGUEL ALVES</t>
+          <t>LAGOA ALEGRE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HZA-7072</t>
+          <t>NGC-9023</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~, 15</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,29 +1571,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MIGUEL ALVES</t>
+          <t>LAGOA ALEGRE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HZA-7072</t>
+          <t>NGC-9023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1603,24 +1603,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MIGUEL ALVES</t>
+          <t>LAGOA ALEGRE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NGJ-0853</t>
+          <t>HZA-7072</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1652,12 +1652,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NGJ-0853</t>
+          <t>HZA-7072</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NGJ-0853</t>
+          <t>HZA-7072</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1716,12 +1716,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NGJ-0853</t>
+          <t>HZA-7072</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 17</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NGJ-0853</t>
+          <t>HZA-7072</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~, 12, 13, 16, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1780,12 +1780,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NGJ-0853</t>
+          <t>HZA-7072</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~, 14, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1812,12 +1812,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NGD-7083</t>
+          <t>NGJ-0853</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1844,12 +1844,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NGD-7083</t>
+          <t>NGJ-0853</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~, 13, 14, 16, 17, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NGD-7083</t>
+          <t>NGJ-0853</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1908,12 +1908,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NGD-7083</t>
+          <t>NGJ-0853</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1940,12 +1940,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>KJK-8615</t>
+          <t>NGJ-0853</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~, 16</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1972,12 +1972,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KJK-8615</t>
+          <t>NGJ-0853</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1987,12 +1987,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2004,12 +2004,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>KJK-8615</t>
+          <t>NGD-7083</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~, 12, 14, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>KJK-8615</t>
+          <t>NGD-7083</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~, 13, 15, 16, 17</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2068,12 +2068,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JSY-5A87</t>
+          <t>NGD-7083</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2093,19 +2093,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PRATA</t>
+          <t>MIGUEL ALVES</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JSY-5A87</t>
+          <t>NGD-7083</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 12, 15, 16, 17</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2125,14 +2125,14 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PRATA</t>
+          <t>MIGUEL ALVES</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PJP-4986</t>
+          <t>KJK-8615</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2157,19 +2157,19 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PRATA</t>
+          <t>MIGUEL ALVES</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PJP-4986</t>
+          <t>KJK-8615</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2189,19 +2189,19 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PRATA</t>
+          <t>MIGUEL ALVES</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NIP-8681</t>
+          <t>KJK-8615</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2221,14 +2221,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PRATA</t>
+          <t>MIGUEL ALVES</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NIP-8681</t>
+          <t>KJK-8615</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2253,14 +2253,14 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PRATA</t>
+          <t>MIGUEL ALVES</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NVB-8980</t>
+          <t>JSY-5A87</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>UNIÃO</t>
+          <t>PRATA</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NVB-8980</t>
+          <t>JSY-5A87</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2317,14 +2317,14 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>UNIÃO</t>
+          <t>PRATA</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NVB-8980</t>
+          <t>PJP-4986</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2344,19 +2344,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>UNIÃO</t>
+          <t>PRATA</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NVB-8980</t>
+          <t>PJP-4986</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2376,19 +2376,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UNIÃO</t>
+          <t>PRATA</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NVB-8980</t>
+          <t>NIP-8681</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2403,24 +2403,24 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UNIÃO</t>
+          <t>PRATA</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NVB-8980</t>
+          <t>NIP-8681</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2435,24 +2435,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>UNIÃO</t>
+          <t>PRATA</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NQR-5926</t>
+          <t>NVB-8980</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2484,12 +2484,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NQR-5926</t>
+          <t>NVB-8980</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2516,12 +2516,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NQR-5926</t>
+          <t>NVB-8980</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ROTA NÃO CONDIZ</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2548,12 +2548,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NQR-5926</t>
+          <t>NVB-8980</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ROTA NÃO CONDIZ</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2580,12 +2580,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NQR-5926</t>
+          <t>NVB-8980</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NQR-5926</t>
+          <t>NVB-8980</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>KJK-9345</t>
+          <t>NQR-5926</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>~, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2676,12 +2676,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>KJK-9345</t>
+          <t>NQR-5926</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 12, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2708,12 +2708,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>KXR-5549</t>
+          <t>NQR-5926</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2728,19 +2728,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>ROTA NÃO CONDIZ</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PALMERAIS</t>
+          <t>UNIÃO</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>KXR-5549</t>
+          <t>NQR-5926</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2765,19 +2765,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>PALMERAIS</t>
+          <t>UNIÃO</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NGJ-0903</t>
+          <t>NQR-5926</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>~, 12, 19</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2797,19 +2797,19 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>PALMERAIS</t>
+          <t>UNIÃO</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NGJ-0903</t>
+          <t>NQR-5926</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>~, 16, 17, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2819,29 +2819,29 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>ROTA NÃO CONDIZ</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PALMERAIS</t>
+          <t>UNIÃO</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NGJ-0903</t>
+          <t>KJK-9345</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>~, 13, 14</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2856,19 +2856,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ROTA NÃO CONDIZ</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PALMERAIS</t>
+          <t>UNIÃO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NGC-8853</t>
+          <t>KJK-9345</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2888,42 +2888,202 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PALMERAIS</t>
+          <t>UNIÃO</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>KXR-5549</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>~, 21</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NÃO FEZ A ROTA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>KXR-5549</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NÃO APRESENTA ROTA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NGJ-0903</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NÃO FEZ A ROTA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NGJ-0903</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NÃO APRESENTA ROTA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
           <t>NGC-8853</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>~, 12, 13, 14, 17</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>JUNHO</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>TARDE</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>NÃO APRESENTA ROTA</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NÃO FEZ A ROTA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NGC-8853</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>~, 21</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NÃO APRESENTA ROTA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>PALMERAIS</t>
         </is>

--- a/INFORMATIVO 18° GRE.xlsx
+++ b/INFORMATIVO 18° GRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 23, 24, 26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NGC-9023</t>
+          <t>HYU-4278</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 24, 26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>ROTA NÃO CONDIZ</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1620,12 +1620,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HZA-7072</t>
+          <t>NGC-9023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MIGUEL ALVES</t>
+          <t>LAGOA ALEGRE</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1763,12 +1763,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1812,12 +1812,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NGJ-0853</t>
+          <t>HZA-7072</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 24, 26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 23, 24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 24, 26</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NGD-7083</t>
+          <t>NGJ-0853</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2132,12 +2132,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KJK-8615</t>
+          <t>NGD-7083</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2147,12 +2147,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JSY-5A87</t>
+          <t>KJK-8615</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PRATA</t>
+          <t>MIGUEL ALVES</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 23, 26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2324,12 +2324,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PJP-4986</t>
+          <t>JSY-5A87</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NIP-8681</t>
+          <t>PJP-4986</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NVB-8980</t>
+          <t>NIP-8681</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UNIÃO</t>
+          <t>PRATA</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NQR-5926</t>
+          <t>NVB-8980</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ROTA NÃO CONDIZ</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 26</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2755,12 +2755,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>ROTA NÃO CONDIZ</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ROTA NÃO CONDIZ</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2836,12 +2836,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>KJK-9345</t>
+          <t>NQR-5926</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 26</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>ROTA NÃO CONDIZ</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2900,12 +2900,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KXR-5549</t>
+          <t>KJK-9345</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PALMERAIS</t>
+          <t>UNIÃO</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,7 +2964,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NGJ-0903</t>
+          <t>KXR-5549</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3028,12 +3028,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NGC-8853</t>
+          <t>NGJ-0903</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3080,10 +3080,42 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NGC-8853</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>~, 21, 22, 23, 24, 26</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NÃO APRESENTA ROTA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>PALMERAIS</t>
         </is>

--- a/INFORMATIVO 18° GRE.xlsx
+++ b/INFORMATIVO 18° GRE.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 21, 24</t>
+          <t>~, 21, 24, 28, 29, 30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 21, 24</t>
+          <t>~, 21, 24, 29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24</t>
+          <t>~, 21, 22, 23, 24, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24</t>
+          <t>~, 21, 22, 23, 24, 27, 28, 29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~, 21, 23, 24, 26</t>
+          <t>~, 21, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 27, 29</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24, 26</t>
+          <t>~, 22, 23, 24, 26, 27, 28, 29, 29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~, 22, 24, 26</t>
+          <t>~, 22, 24, 26, 27, 29</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 29</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24</t>
+          <t>~, 22, 23, 24, 29, 29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24</t>
+          <t>~, 21, 22, 23, 24, 29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 27</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 21, 22, 24, 26</t>
+          <t>~, 21, 22, 24, 26, 29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~, 21, 23, 24</t>
+          <t>~, 21, 23, 24, 28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~, 22</t>
+          <t>~, 22, 27, 29</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 23</t>
+          <t>~, 23, 28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~, 21, 22, 24, 26</t>
+          <t>~, 21, 22, 24, 26, 27, 29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24</t>
+          <t>~, 21, 22, 23, 24, 28, 29</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24</t>
+          <t>~, 21, 22, 23, 24, 27, 29, 29</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24</t>
+          <t>~, 21, 22, 23, 24, 27, 28, 29, 29</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 29</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 26</t>
+          <t>~, 21, 22, 23, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 26</t>
+          <t>~, 21, 22, 23, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 28</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 29</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 29</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">

--- a/INFORMATIVO 18° GRE.xlsx
+++ b/INFORMATIVO 18° GRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>~, 04</t>
+          <t>~, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 04</t>
+          <t>~, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 06, 08</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 08</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 08</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 07</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 08, 10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 08</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 08, 10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 10</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~, 01, 03</t>
+          <t>~, 01, 03, 05, 07, 08</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~, 04</t>
+          <t>~, 04, 06</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~, 03, 04</t>
+          <t>~, 03, 04, 05, 06, 07</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~, 01, 03</t>
+          <t>~, 01, 03, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 06</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>~, 01, 04</t>
+          <t>~, 01, 04, 06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 07</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 06</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 07, 08</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 08</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 05, 07</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 05, 06, 08, 10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 07, 08, 10</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>~, 04</t>
+          <t>~, 04, 05, 06</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 07</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>~, 03, 04</t>
+          <t>~, 03, 04, 05, 06, 10</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 07</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>~, 03, 04</t>
+          <t>~, 03, 04, 05, 06, 08</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 08</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>~, 01, 03</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 10</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>~, 01, 03</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 10</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 08</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 07, 08, 10</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3764,12 +3764,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NGC-8853</t>
+          <t>NGJ-0903</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>ROTA NÃO CONDIZENTE</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3816,10 +3816,42 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
+        <is>
+          <t>PALMERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NGC-8853</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>~, 01, 08</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>JULHO</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>NÃO APRESENTA ROTA</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
         <is>
           <t>PALMERAIS</t>
         </is>
